--- a/mbs-perturbation/chatty/welm/nearmiss/chatty_welm_tanh_nearmiss_results.xlsx
+++ b/mbs-perturbation/chatty/welm/nearmiss/chatty_welm_tanh_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6875</v>
+        <v>0.64</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9206349206349207</v>
+        <v>0.532051282051282</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.625</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="4">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.65625</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5465838509316769</v>
       </c>
       <c r="E4" t="n">
-        <v>0.746031746031746</v>
+        <v>0.467948717948718</v>
       </c>
     </row>
   </sheetData>
